--- a/doc/项目任务书.xlsx
+++ b/doc/项目任务书.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>任务跟踪表</t>
   </si>
@@ -54,19 +54,31 @@
     <t>验收时间</t>
   </si>
   <si>
+    <t>明确开发工具和环境</t>
+  </si>
+  <si>
+    <t>DEMO</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>确定开发前后端框架</t>
+  </si>
+  <si>
+    <t>ZCX</t>
+  </si>
+  <si>
+    <t>确定项目部署环境</t>
+  </si>
+  <si>
+    <t>按需求说明书整理DEMO</t>
+  </si>
+  <si>
     <t>前台</t>
-  </si>
-  <si>
-    <t>DEMO</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>ZCX</t>
   </si>
 </sst>
 </file>
@@ -104,6 +116,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -118,9 +138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,15 +147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +155,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +175,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -174,21 +214,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,37 +246,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +267,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -273,18 +309,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,144 +448,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,11 +461,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,23 +518,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,30 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -554,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,147 +578,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,12 +1080,13 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
@@ -1070,106 +1095,122 @@
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
-      <c r="C3" s="1" t="s">
+    <row r="3" ht="27" spans="2:9">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G3" s="7">
+        <v>42635</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" ht="27" spans="2:9">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G4" s="7">
+        <v>42635</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="2:9">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="7">
+        <v>42635</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" ht="27" spans="2:9">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="G6" s="7">
+        <v>42637</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
@@ -1177,7 +1218,7 @@
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1191,7 +1232,7 @@
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1205,7 +1246,7 @@
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -1219,7 +1260,7 @@
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -1233,7 +1274,7 @@
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1247,7 +1288,7 @@
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1261,7 +1302,7 @@
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1275,7 +1316,7 @@
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1289,7 +1330,7 @@
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -1303,7 +1344,7 @@
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1317,7 +1358,7 @@
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1331,7 +1372,7 @@
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -1345,7 +1386,7 @@
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -1359,7 +1400,7 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1373,7 +1414,7 @@
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
